--- a/Database Repository/EdusafeServicingDB Repository/0. Helper Scripts and Excel/Batch Creator.xlsx
+++ b/Database Repository/EdusafeServicingDB Repository/0. Helper Scripts and Excel/Batch Creator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dar Vadar\Desktop\EduSafe Repo\edusafe\Database Repository\EdusafeServicingDB Repository\0. Helper Scripts and Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F508D45-6CBE-465C-96E4-83F8ECACFCC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E1B348-FBA2-4B2A-A520-38F08F6F5F4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4F07375E-5034-49E5-AD40-EDFCB413E4AD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4F07375E-5034-49E5-AD40-EDFCB413E4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Entries" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="96">
   <si>
     <t>Database</t>
   </si>
@@ -266,12 +266,6 @@
     <t>SP_InsertInsureesGraduationVerificationDetails</t>
   </si>
   <si>
-    <t>SP_InsertInsureesInsureesMajorMinorDetails</t>
-  </si>
-  <si>
-    <t>SP_InsertInsureesInsureesMajorMinorDetailsSet</t>
-  </si>
-  <si>
     <t>SP_InsertInsureesNextPaymentAndBalanceInformation</t>
   </si>
   <si>
@@ -327,6 +321,18 @@
   </si>
   <si>
     <t>.Constraints.sql</t>
+  </si>
+  <si>
+    <t>EmailsSet</t>
+  </si>
+  <si>
+    <t>SP_InsertInsureesMajorMinorDetails</t>
+  </si>
+  <si>
+    <t>SP_InsertInsureesMajorMinorDetailsSet</t>
+  </si>
+  <si>
+    <t>SP_InsertEmailsSet</t>
   </si>
 </sst>
 </file>
@@ -742,18 +748,18 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -763,10 +769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746F0001-40B4-4DDF-A81A-84108DB4EF26}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C33"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1147,7 @@
         <v>22</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ref="C31:C33" si="2">"IF EXISTS (SELECT * FROM INFORMATION_SCHEMA.TABLES WHERE TABLE_NAME = '"&amp;A31&amp;"') BEGIN DROP TABLE "&amp;B31&amp;A31&amp;" END"</f>
+        <f t="shared" ref="C31:C34" si="2">"IF EXISTS (SELECT * FROM INFORMATION_SCHEMA.TABLES WHERE TABLE_NAME = '"&amp;A31&amp;"') BEGIN DROP TABLE "&amp;B31&amp;A31&amp;" END"</f>
         <v>IF EXISTS (SELECT * FROM INFORMATION_SCHEMA.TABLES WHERE TABLE_NAME = 'NotificationType') BEGIN DROP TABLE dbo.NotificationType END</v>
       </c>
     </row>
@@ -1167,6 +1173,447 @@
       <c r="C33" t="str">
         <f t="shared" si="2"/>
         <v>IF EXISTS (SELECT * FROM INFORMATION_SCHEMA.TABLES WHERE TABLE_NAME = 'PaymentStatusType') BEGIN DROP TABLE dbo.PaymentStatusType END</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="2"/>
+        <v>IF EXISTS (SELECT * FROM INFORMATION_SCHEMA.TABLES WHERE TABLE_NAME = 'EmailsSet') BEGIN DROP TABLE dbo.EmailsSet END</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>"SP_Insert"&amp;A2</f>
+        <v>SP_InsertInsureesAccountData</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="str">
+        <f>"IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = '" &amp;A36 &amp;"' ) BEGIN DROP PROCEDURE " &amp;B36 &amp;A36&amp;" END"</f>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInsureesAccountData' ) BEGIN DROP PROCEDURE cust.SP_InsertInsureesAccountData END</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" ref="A37:A68" si="3">"SP_Insert"&amp;A3</f>
+        <v>SP_InsertClaimAccountEntry</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" ref="C37:C68" si="4">"IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = '" &amp;A37 &amp;"' ) BEGIN DROP PROCEDURE " &amp;B37 &amp;A37&amp;" END"</f>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertClaimAccountEntry' ) BEGIN DROP PROCEDURE dbo.SP_InsertClaimAccountEntry END</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertClaimDocumentEntry</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertClaimDocumentEntry' ) BEGIN DROP PROCEDURE dbo.SP_InsertClaimDocumentEntry END</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertClaimOptionEntry</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertClaimOptionEntry' ) BEGIN DROP PROCEDURE dbo.SP_InsertClaimOptionEntry END</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertClaimPaymentEntry</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertClaimPaymentEntry' ) BEGIN DROP PROCEDURE dbo.SP_InsertClaimPaymentEntry END</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertClaimStatusEntry</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertClaimStatusEntry' ) BEGIN DROP PROCEDURE dbo.SP_InsertClaimStatusEntry END</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertClaimStatusType</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertClaimStatusType' ) BEGIN DROP PROCEDURE dbo.SP_InsertClaimStatusType END</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertCollegeAcademicTermType</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertCollegeAcademicTermType' ) BEGIN DROP PROCEDURE dbo.SP_InsertCollegeAcademicTermType END</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertCollegeDetail</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertCollegeDetail' ) BEGIN DROP PROCEDURE dbo.SP_InsertCollegeDetail END</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertCollegeMajor</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertCollegeMajor' ) BEGIN DROP PROCEDURE dbo.SP_InsertCollegeMajor END</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertCollegeType</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertCollegeType' ) BEGIN DROP PROCEDURE dbo.SP_InsertCollegeType END</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertFileVerificationStatusType</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertFileVerificationStatusType' ) BEGIN DROP PROCEDURE dbo.SP_InsertFileVerificationStatusType END</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInstitutionsAccountData</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInstitutionsAccountData' ) BEGIN DROP PROCEDURE dbo.SP_InsertInstitutionsAccountData END</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInstitutionsInsureeList</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInstitutionsInsureeList' ) BEGIN DROP PROCEDURE dbo.SP_InsertInstitutionsInsureeList END</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInstitutionsNextPaymentAndBalanceInformation</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInstitutionsNextPaymentAndBalanceInformation' ) BEGIN DROP PROCEDURE dbo.SP_InsertInstitutionsNextPaymentAndBalanceInformation END</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInstitutionsNotificationHistoryEntry</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInstitutionsNotificationHistoryEntry' ) BEGIN DROP PROCEDURE dbo.SP_InsertInstitutionsNotificationHistoryEntry END</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInstitutionsPaymentHistoryEntry</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInstitutionsPaymentHistoryEntry' ) BEGIN DROP PROCEDURE dbo.SP_InsertInstitutionsPaymentHistoryEntry END</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInsureesAcademicHistory</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInsureesAcademicHistory' ) BEGIN DROP PROCEDURE dbo.SP_InsertInsureesAcademicHistory END</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInsureesEnrollmentVerificationDetails</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInsureesEnrollmentVerificationDetails' ) BEGIN DROP PROCEDURE dbo.SP_InsertInsureesEnrollmentVerificationDetails END</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInsureesGraduationVerificationDetails</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInsureesGraduationVerificationDetails' ) BEGIN DROP PROCEDURE dbo.SP_InsertInsureesGraduationVerificationDetails END</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInsureesMajorMinorDetails</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInsureesMajorMinorDetails' ) BEGIN DROP PROCEDURE dbo.SP_InsertInsureesMajorMinorDetails END</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInsureesMajorMinorDetailsSet</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInsureesMajorMinorDetailsSet' ) BEGIN DROP PROCEDURE dbo.SP_InsertInsureesMajorMinorDetailsSet END</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInsureesNextPaymentAndBalanceInformation</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInsureesNextPaymentAndBalanceInformation' ) BEGIN DROP PROCEDURE dbo.SP_InsertInsureesNextPaymentAndBalanceInformation END</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInsureesNotificationHistoryEntry</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInsureesNotificationHistoryEntry' ) BEGIN DROP PROCEDURE dbo.SP_InsertInsureesNotificationHistoryEntry END</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInsureesPaymentHistoryEntry</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInsureesPaymentHistoryEntry' ) BEGIN DROP PROCEDURE dbo.SP_InsertInsureesPaymentHistoryEntry END</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInsureesPremiumCalculationDetails</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInsureesPremiumCalculationDetails' ) BEGIN DROP PROCEDURE dbo.SP_InsertInsureesPremiumCalculationDetails END</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInsureesPremiumCalculationDetailsSet</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInsureesPremiumCalculationDetailsSet' ) BEGIN DROP PROCEDURE dbo.SP_InsertInsureesPremiumCalculationDetailsSet END</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInsureesPremiumCalculationOptionDetails</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInsureesPremiumCalculationOptionDetails' ) BEGIN DROP PROCEDURE dbo.SP_InsertInsureesPremiumCalculationOptionDetails END</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertInsureesPremiumCalculationOptionDetailsSet</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertInsureesPremiumCalculationOptionDetailsSet' ) BEGIN DROP PROCEDURE dbo.SP_InsertInsureesPremiumCalculationOptionDetailsSet END</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertNotificationType</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertNotificationType' ) BEGIN DROP PROCEDURE dbo.SP_InsertNotificationType END</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertOptionType</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertOptionType' ) BEGIN DROP PROCEDURE dbo.SP_InsertOptionType END</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertPaymentStatusType</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertPaymentStatusType' ) BEGIN DROP PROCEDURE dbo.SP_InsertPaymentStatusType END</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" si="3"/>
+        <v>SP_InsertEmailsSet</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="4"/>
+        <v>IF EXISTS (SELECT * FROM sys.objects WHERE Type = 'P' and Name = 'SP_InsertEmailsSet' ) BEGIN DROP PROCEDURE dbo.SP_InsertEmailsSet END</v>
       </c>
     </row>
   </sheetData>
@@ -1176,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6E4056-ECB1-45E1-9DAC-970AA7C8F4F6}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D33"/>
+      <selection activeCell="D34" sqref="D2:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,6 +2180,34 @@
         <v>sqlcmd -S edusafe.database.windows.net  -d EdusafeServicingDB -U EduSafeAdmin -P Master123 -i "1. Tables\dbo.PaymentStatusType.Table.sql" &gt;&gt; "CreateTable.txt</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" ref="D34" si="4">"sqlcmd -S "
+&amp;Entries_Server
+&amp;" -d "
+&amp;Entries_Database
+&amp;" -U "
+&amp;Entries_User
+&amp;" -P "
+&amp;Entries_Password
+&amp;" -i "
+&amp;Entries_Table_RootPath
+&amp;B34&amp;A34&amp;C34
+&amp;""""
+&amp;" &gt;&gt; """
+&amp;Entries_Table_DebugText</f>
+        <v>sqlcmd -S edusafe.database.windows.net  -d EdusafeServicingDB -U EduSafeAdmin -P Master123 -i "1. Tables\dbo.EmailsSet.Table.sql" &gt;&gt; "CreateTable.txt</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{F5AD6982-234C-4993-9631-9FC9804B6135}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
@@ -1745,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7A6780-4CB8-4C87-9527-D541C7D9DA48}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1779,10 +2254,10 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D35" si="0">"sqlcmd -S "
+        <f t="shared" ref="D2:D33" si="0">"sqlcmd -S "
 &amp;Entries_Server
 &amp;" -d "
 &amp;Entries_Database
@@ -1807,7 +2282,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -1822,7 +2297,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -1837,7 +2312,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -1852,7 +2327,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -1867,7 +2342,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -1882,7 +2357,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -1897,7 +2372,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -1912,7 +2387,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -1927,7 +2402,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -1942,7 +2417,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -1957,7 +2432,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -1972,7 +2447,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -1987,7 +2462,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -2002,7 +2477,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -2017,7 +2492,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -2032,7 +2507,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -2047,7 +2522,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -2062,7 +2537,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -2077,7 +2552,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -2086,43 +2561,43 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>sqlcmd -S edusafe.database.windows.net  -d EdusafeServicingDB -U EduSafeAdmin -P Master123 -i "2. Stored Procedures\dbo.SP_InsertInsureesInsureesMajorMinorDetails.StoredProcedure.sql" &gt;&gt; "CreateSp.txt</v>
+        <v>sqlcmd -S edusafe.database.windows.net  -d EdusafeServicingDB -U EduSafeAdmin -P Master123 -i "2. Stored Procedures\dbo.SP_InsertInsureesMajorMinorDetails.StoredProcedure.sql" &gt;&gt; "CreateSp.txt</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>sqlcmd -S edusafe.database.windows.net  -d EdusafeServicingDB -U EduSafeAdmin -P Master123 -i "2. Stored Procedures\dbo.SP_InsertInsureesInsureesMajorMinorDetailsSet.StoredProcedure.sql" &gt;&gt; "CreateSp.txt</v>
+        <v>sqlcmd -S edusafe.database.windows.net  -d EdusafeServicingDB -U EduSafeAdmin -P Master123 -i "2. Stored Procedures\dbo.SP_InsertInsureesMajorMinorDetailsSet.StoredProcedure.sql" &gt;&gt; "CreateSp.txt</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -2131,13 +2606,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -2146,13 +2621,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -2161,13 +2636,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -2176,13 +2651,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -2191,13 +2666,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -2206,13 +2681,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -2221,13 +2696,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -2236,13 +2711,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -2251,36 +2726,64 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
         <v>sqlcmd -S edusafe.database.windows.net  -d EdusafeServicingDB -U EduSafeAdmin -P Master123 -i "2. Stored Procedures\dbo.SP_InsertPaymentStatusType.StoredProcedure.sql" &gt;&gt; "CreateSp.txt</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" ref="D34" si="1">"sqlcmd -S "
+&amp;Entries_Server
+&amp;" -d "
+&amp;Entries_Database
+&amp;" -U "
+&amp;Entries_User
+&amp;" -P "
+&amp;Entries_Password
+&amp;" -i "
+&amp;Entries_StoredProcedure_RootPath
+&amp;B34&amp;A34&amp;C34
+&amp;""""
+&amp;" &gt;&gt; """
+&amp;Entries_StoredProcedure_DebugText</f>
+        <v>sqlcmd -S edusafe.database.windows.net  -d EdusafeServicingDB -U EduSafeAdmin -P Master123 -i "2. Stored Procedures\dbo.SP_InsertEmailsSet.StoredProcedure.sql" &gt;&gt; "CreateSp.txt</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
         <v>91</v>
       </c>
-      <c r="E35" t="s">
+      <c r="D36" t="s">
         <v>89</v>
       </c>
-      <c r="F35" t="str">
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" t="str">
         <f>"sqlcmd -S "
 &amp;Entries_Server
 &amp;" -d "
@@ -2290,11 +2793,11 @@
 &amp;" -P "
 &amp;Entries_Password
 &amp;" -i "
-&amp;D35
-&amp;B35&amp;A35&amp;C35
+&amp;D36
+&amp;B36&amp;A36&amp;C36
 &amp;""""
 &amp;" &gt;&gt; """
-&amp;E35</f>
+&amp;E36</f>
         <v>sqlcmd -S edusafe.database.windows.net  -d EdusafeServicingDB -U EduSafeAdmin -P Master123 -i 6. Constraintsdbo.dbo.ForeignKeyConstraints.Constraints.Constraints.sql" &gt;&gt; "CreateFK</v>
       </c>
     </row>
